--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43343.42639508333</v>
+        <v>38055.31090031096</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11494226.84337812</v>
+        <v>11492456.90520687</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.20001728774361</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>132.7508187198315</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226531</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104615326</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>133.7941747716299</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>135.8843655675951</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>118.408615781029</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>27.46563717087398</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226531</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968133</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>36.65301522788415</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>169.2570888310019</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>68.49467076471637</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>11.03222870489802</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>144.8481997245093</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,7 +1385,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>65.87543334372789</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
@@ -1427,16 +1427,16 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>2.072684522549082</v>
       </c>
       <c r="W11" t="n">
-        <v>71.96738271581964</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>60.1186837370624</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>100.7285240959214</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>34.49040930870608</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>22.58939939127171</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>119.9714841384427</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>98.37782093493077</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879333</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838905</v>
+        <v>24.17382596574993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828918</v>
+        <v>52.06849973565005</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043175</v>
+        <v>70.57601873167837</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459991</v>
+        <v>55.72314698196078</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643963</v>
+        <v>41.29686219380051</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931874</v>
+        <v>41.22330424667962</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908601</v>
+        <v>42.97275566644689</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147815</v>
+        <v>53.79159358883902</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805019</v>
+        <v>41.14384575541106</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922212</v>
+        <v>18.98356133658299</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367804</v>
+        <v>9.882059701038912</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920536</v>
+        <v>88.00800320656623</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1276.13637826023</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.13637826023</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="E2" t="n">
-        <v>873.5528533767741</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L2" t="n">
-        <v>681.465724022112</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1219.724509032205</v>
+        <v>1048.426217084556</v>
       </c>
       <c r="N2" t="n">
-        <v>1219.724509032205</v>
+        <v>1562.028895694244</v>
       </c>
       <c r="O2" t="n">
-        <v>1659.764109924534</v>
+        <v>2002.068496586573</v>
       </c>
       <c r="P2" t="n">
-        <v>2007.951602056056</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023273</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023273</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023273</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023273</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="W2" t="n">
-        <v>1765.79102099156</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="X2" t="n">
-        <v>1376.338415924617</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="Y2" t="n">
-        <v>1376.338415924617</v>
+        <v>1870.655869043495</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021461</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622383</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837186</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946063</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777381</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475502</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365388</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="N3" t="n">
-        <v>1923.318461375481</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.41787818286</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692676001</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431074</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.6412904772095</v>
+        <v>384.7662638580611</v>
       </c>
       <c r="C4" t="n">
-        <v>178.6412904772095</v>
+        <v>384.7662638580611</v>
       </c>
       <c r="D4" t="n">
-        <v>178.6412904772095</v>
+        <v>384.7662638580611</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475502</v>
+        <v>229.2074517172636</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475502</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>805.6933343811282</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>569.9742825493623</v>
       </c>
       <c r="U4" t="n">
-        <v>821.0416925688844</v>
+        <v>569.9742825493623</v>
       </c>
       <c r="V4" t="n">
-        <v>821.0416925688844</v>
+        <v>569.9742825493623</v>
       </c>
       <c r="W4" t="n">
-        <v>821.0416925688844</v>
+        <v>569.9742825493623</v>
       </c>
       <c r="X4" t="n">
-        <v>586.9613703518675</v>
+        <v>569.9742825493623</v>
       </c>
       <c r="Y4" t="n">
-        <v>363.8493091685108</v>
+        <v>569.9742825493623</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.422828435285</v>
+        <v>888.7242779591838</v>
       </c>
       <c r="C5" t="n">
-        <v>960.2473269382153</v>
+        <v>888.7242779591838</v>
       </c>
       <c r="D5" t="n">
-        <v>574.8061981548831</v>
+        <v>888.7242779591838</v>
       </c>
       <c r="E5" t="n">
-        <v>172.2226732714276</v>
+        <v>486.1407530757284</v>
       </c>
       <c r="F5" t="n">
-        <v>52.6180108663478</v>
+        <v>69.24631460570612</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>514.9239283250758</v>
       </c>
       <c r="M5" t="n">
-        <v>1085.386573341138</v>
+        <v>1028.526606934764</v>
       </c>
       <c r="N5" t="n">
-        <v>1613.1978569786</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465281</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297168</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.529637731766</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="V5" t="n">
-        <v>1353.422828435285</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="W5" t="n">
-        <v>1353.422828435285</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="X5" t="n">
-        <v>1353.422828435285</v>
+        <v>1685.70973274998</v>
       </c>
       <c r="Y5" t="n">
-        <v>1353.422828435285</v>
+        <v>1289.219023670581</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475502</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569815</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M6" t="n">
-        <v>846.8008913552947</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="N6" t="n">
-        <v>1385.059676365388</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="O6" t="n">
-        <v>1901.579958956369</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737751</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354.6875846330378</v>
+        <v>78.52649446127194</v>
       </c>
       <c r="C7" t="n">
-        <v>354.6875846330378</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="D7" t="n">
-        <v>199.0544715355525</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W7" t="n">
-        <v>773.975925541356</v>
+        <v>535.7188778616455</v>
       </c>
       <c r="X7" t="n">
-        <v>539.895603324339</v>
+        <v>301.6385556446286</v>
       </c>
       <c r="Y7" t="n">
-        <v>539.895603324339</v>
+        <v>78.52649446127194</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.94639032356</v>
+        <v>866.5993466026441</v>
       </c>
       <c r="C8" t="n">
-        <v>858.7708888264909</v>
+        <v>866.5993466026441</v>
       </c>
       <c r="D8" t="n">
-        <v>473.3297600431587</v>
+        <v>866.5993466026441</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431587</v>
+        <v>866.5993466026441</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>449.7049081326219</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>440.5825566610291</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>116.4995062275198</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1044.265390756362</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4835,19 +4835,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2354.504839718697</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2012.398030422216</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.398995390503</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.94639032356</v>
+        <v>1263.090055682043</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.94639032356</v>
+        <v>866.5993466026441</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>272.5108437565973</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
         <v>1443.506853769802</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>512.5755295299095</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>512.5755295299095</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>512.5755295299095</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>682.7806474639203</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880364</v>
+        <v>1702.435468430418</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="E11" t="n">
-        <v>815.124613155088</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2499.985069341892</v>
+        <v>2673.484702849575</v>
       </c>
       <c r="W11" t="n">
-        <v>2427.290743366316</v>
+        <v>2673.484702849575</v>
       </c>
       <c r="X11" t="n">
-        <v>2109.634413445567</v>
+        <v>2355.828372928826</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.634413445567</v>
+        <v>2031.133938995621</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>315.1679011885523</v>
+        <v>318.2838994630213</v>
       </c>
       <c r="C13" t="n">
-        <v>315.1679011885523</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="D13" t="n">
-        <v>231.3310632372609</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="E13" t="n">
-        <v>231.3310632372609</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,34 +5200,34 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
         <v>936.0428256245443</v>
@@ -5236,13 +5236,13 @@
         <v>741.8597555915625</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689339</v>
+        <v>530.325628668934</v>
       </c>
       <c r="X13" t="n">
-        <v>530.3256286689339</v>
+        <v>530.325628668934</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.5796447336597</v>
+        <v>379.0098426317712</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1470.676576838057</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>1149.297350487181</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>835.6524968500428</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E14" t="n">
-        <v>504.8652471127812</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185757</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527727</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2931.434482768688</v>
       </c>
       <c r="V14" t="n">
-        <v>2740.928571142733</v>
+        <v>2661.123948618401</v>
       </c>
       <c r="W14" t="n">
-        <v>2441.725811257214</v>
+        <v>2361.921188732882</v>
       </c>
       <c r="X14" t="n">
-        <v>2124.069481336465</v>
+        <v>2361.921188732882</v>
       </c>
       <c r="Y14" t="n">
-        <v>1799.37504740326</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1974.833293963354</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420617</v>
+        <v>473.1077715468675</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542449</v>
+        <v>374.6989287590507</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029534</v>
+        <v>290.8620908077594</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083498</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138157</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922022</v>
+        <v>1192.424801610463</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.965602310116</v>
+        <v>1192.424801610463</v>
       </c>
       <c r="V16" t="n">
-        <v>905.7825322771344</v>
+        <v>998.2417315774817</v>
       </c>
       <c r="W16" t="n">
-        <v>806.4109959792245</v>
+        <v>786.7076046548532</v>
       </c>
       <c r="X16" t="n">
-        <v>806.4109959792245</v>
+        <v>624.4235575840303</v>
       </c>
       <c r="Y16" t="n">
-        <v>655.0952099420617</v>
+        <v>473.1077715468675</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099319</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229871</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222406</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960404</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343044</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655136</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,19 +6218,19 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>247.9841471388</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>700.0178648958351</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
         <v>1739.339056658945</v>
@@ -6242,13 +6242,13 @@
         <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>701.1365085742315</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
-        <v>1356.914479784791</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388005</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662623</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6488,7 +6488,7 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6543,22 +6543,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>358.2210070908127</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>841.787092989126</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
         <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232844</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835515</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>651.4842651334795</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.04615434972</v>
+        <v>1144.804556852008</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.320147121371</v>
+        <v>1690.805456896589</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873285</v>
+        <v>2218.616740534051</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765613</v>
+        <v>2770.308462001362</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897135</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>352.4112837456083</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>835.9773696439215</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996514</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918676</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123137</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374208</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>342.9206752648151</v>
       </c>
       <c r="L34" t="n">
-        <v>496.282672081206</v>
+        <v>618.7004357135977</v>
       </c>
       <c r="M34" t="n">
-        <v>682.57425041947</v>
+        <v>910.7916726541107</v>
       </c>
       <c r="N34" t="n">
-        <v>884.291208377098</v>
+        <v>1093.98130668532</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145876</v>
+        <v>1256.686073727028</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250195</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273689</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400716</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045798</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,22 +7336,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599515</v>
@@ -7439,10 +7439,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7567,28 +7567,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>224.1336100998649</v>
       </c>
       <c r="Q2" t="n">
-        <v>313.0152314302057</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,16 +8064,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837496</v>
+        <v>574.4602701392405</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886044</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>109.9596970781608</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,19 +8216,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>485.339996659693</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O5" t="n">
-        <v>178.4043025621576</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>378.6385200912992</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886044</v>
+        <v>604.1626973083974</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>126.3135862602152</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>500.9472399802273</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>277.8952841518222</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>202.8119771871982</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>92.83741255226374</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8772,7 +8772,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8784,10 +8784,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,7 +9006,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,13 +9015,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>571.8744206036794</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9243,7 +9243,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,13 +9252,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,10 +9477,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>220.8844470939643</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,25 +9954,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215578</v>
       </c>
       <c r="O27" t="n">
-        <v>491.4748860273811</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,13 +10191,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063265</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10832,7 +10832,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>265.5347442862358</v>
       </c>
       <c r="W11" t="n">
-        <v>224.2433495708438</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>52.15894237259394</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
         <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.07410408086974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>307.156772381884</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>159.5274904837437</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>42.31206478027352</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>111.0409647184714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1006402.866398911</v>
+        <v>1005500.54497827</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1006402.866398911</v>
+        <v>1005500.54497827</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899251.6054682329</v>
+        <v>899251.6054682328</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899251.6054682328</v>
+        <v>899251.6054682332</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>288531.4849493708</v>
+      </c>
+      <c r="C2" t="n">
+        <v>288531.4849493708</v>
+      </c>
+      <c r="D2" t="n">
         <v>288531.4849493709</v>
-      </c>
-      <c r="C2" t="n">
-        <v>288531.484949371</v>
-      </c>
-      <c r="D2" t="n">
-        <v>288531.4849493708</v>
       </c>
       <c r="E2" t="n">
         <v>254974.4374790409</v>
       </c>
       <c r="F2" t="n">
-        <v>254974.4374790409</v>
+        <v>254974.437479041</v>
       </c>
       <c r="G2" t="n">
+        <v>288531.4849493707</v>
+      </c>
+      <c r="H2" t="n">
+        <v>288531.4849493707</v>
+      </c>
+      <c r="I2" t="n">
         <v>288531.4849493708</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>288531.4849493705</v>
+      </c>
+      <c r="K2" t="n">
+        <v>288531.4849493701</v>
+      </c>
+      <c r="L2" t="n">
+        <v>288531.484949371</v>
+      </c>
+      <c r="M2" t="n">
         <v>288531.4849493708</v>
       </c>
-      <c r="I2" t="n">
-        <v>288531.4849493707</v>
-      </c>
-      <c r="J2" t="n">
-        <v>288531.4849493704</v>
-      </c>
-      <c r="K2" t="n">
-        <v>288531.4849493705</v>
-      </c>
-      <c r="L2" t="n">
-        <v>288531.4849493707</v>
-      </c>
-      <c r="M2" t="n">
-        <v>288531.4849493709</v>
-      </c>
       <c r="N2" t="n">
+        <v>288531.4849493706</v>
+      </c>
+      <c r="O2" t="n">
         <v>288531.4849493708</v>
       </c>
-      <c r="O2" t="n">
-        <v>288531.4849493709</v>
-      </c>
       <c r="P2" t="n">
-        <v>288531.4849493709</v>
+        <v>288531.4849493708</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062173</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728542</v>
+        <v>62456.24177539667</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26427,7 +26427,7 @@
         <v>112797.3745002078</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002079</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-160172.9724015937</v>
+        <v>-156122.3003941791</v>
       </c>
       <c r="C6" t="n">
-        <v>22031.97589026243</v>
+        <v>17736.3566398761</v>
       </c>
       <c r="D6" t="n">
-        <v>15439.9145505401</v>
+        <v>7703.625327148387</v>
       </c>
       <c r="E6" t="n">
-        <v>-23131.51819505187</v>
+        <v>-23341.24974174151</v>
       </c>
       <c r="F6" t="n">
-        <v>88991.04327899258</v>
+        <v>88781.31173230302</v>
       </c>
       <c r="G6" t="n">
-        <v>22380.09910537914</v>
+        <v>22380.09910537916</v>
       </c>
       <c r="H6" t="n">
+        <v>69805.42464206109</v>
+      </c>
+      <c r="I6" t="n">
+        <v>69805.42464206115</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-136720.2078006515</v>
+      </c>
+      <c r="K6" t="n">
+        <v>63565.65623927753</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4334.230094185143</v>
+      </c>
+      <c r="M6" t="n">
+        <v>26552.90017124993</v>
+      </c>
+      <c r="N6" t="n">
+        <v>69805.42464206094</v>
+      </c>
+      <c r="O6" t="n">
+        <v>42037.73059928993</v>
+      </c>
+      <c r="P6" t="n">
         <v>69805.42464206112</v>
-      </c>
-      <c r="I6" t="n">
-        <v>69805.42464206106</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-143236.4929552249</v>
-      </c>
-      <c r="K6" t="n">
-        <v>63565.65623927784</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8383.067304657015</v>
-      </c>
-      <c r="M6" t="n">
-        <v>27604.59518243826</v>
-      </c>
-      <c r="N6" t="n">
-        <v>69805.42464206117</v>
-      </c>
-      <c r="O6" t="n">
-        <v>42037.73059929005</v>
-      </c>
-      <c r="P6" t="n">
-        <v>69805.42464206129</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26917,10 +26917,10 @@
         <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660678</v>
+        <v>78.07030221924583</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551362</v>
+        <v>17.58004954287449</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>297.2897809665393</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>248.8358987756674</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27439,10 +27439,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434342</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270094</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27543,10 +27543,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>20.20904924775957</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>64.90355741168105</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>294.316878304293</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>381.5654907860028</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27667,22 +27667,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.6626360434342</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626729</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>131.8500515267865</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>111.2400092171323</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>68.45907497374344</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>242.1629735648494</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,19 +28020,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>10.90447571464745</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668787</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,10 +28980,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>128.2979821082774</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29104,7 +29104,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668753</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901226</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>81.1080814089338</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>48.65992738833506</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>106.8683420224737</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254421</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
+        <v>28.01250026485259</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30408,14 +30408,14 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,22 +30648,22 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,10 +30876,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>73.83216285893974</v>
       </c>
       <c r="Q2" t="n">
-        <v>168.5165330118135</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,16 +34784,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344378</v>
+        <v>482.0731480899286</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344378</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>17.27213818927187</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,19 +34936,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>332.0918269292013</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O5" t="n">
-        <v>28.84046513806122</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>286.2513980419873</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.23022144090053</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>351.8287486424433</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>127.593836910897</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>113.2150418538649</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35504,10 +35504,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,13 +35735,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>486.5023077495127</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,13 +35972,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528801</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>135.5123342397976</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528635</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634528463</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>176.3831193851008</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7873271384922</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36765,13 +36765,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113952</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851013</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729924</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318504</v>
+        <v>443.7165218407134</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682817</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511622</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>581.8026381332462</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537661</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729931</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791168</v>
+        <v>82.70543230055083</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>295.0416534752657</v>
       </c>
       <c r="N34" t="n">
-        <v>203.754502987503</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
